--- a/target/test-classes/com/inetbanking/testData/InetBanking_LoginData.xlsx
+++ b/target/test-classes/com/inetbanking/testData/InetBanking_LoginData.xlsx
@@ -22,12 +22,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr251921</t>
-  </si>
-  <si>
-    <t>yberUpU</t>
-  </si>
-  <si>
     <t>mngr2519210</t>
   </si>
   <si>
@@ -38,6 +32,12 @@
   </si>
   <si>
     <t>ghjkl890</t>
+  </si>
+  <si>
+    <t>mngr261041</t>
+  </si>
+  <si>
+    <t>ynAjuqY</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -396,34 +398,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
